--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,21 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,142 +67,139 @@
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -732,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7397260273972602</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -782,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4533333333333333</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8536585365853658</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.437984496124031</v>
+        <v>0.4573643410852713</v>
       </c>
       <c r="C7">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.436241610738255</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8297872340425532</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
         <v>63</v>
@@ -1000,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8166666666666667</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2777777777777778</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,87 +1076,63 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1367292225201072</v>
+        <v>0.008341353865896696</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>322</v>
+        <v>3091</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L12">
+        <v>41</v>
+      </c>
+      <c r="M12">
+        <v>41</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L12">
-        <v>109</v>
-      </c>
-      <c r="M12">
-        <v>109</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.008698561391769822</v>
-      </c>
-      <c r="C13">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>144</v>
-      </c>
-      <c r="E13">
-        <v>0.82</v>
-      </c>
-      <c r="F13">
-        <v>0.18</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2963</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.7647058823529411</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7452830188679245</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1252,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1278,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6984126984126984</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1304,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1330,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6736292428198434</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1356,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6511627906976745</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1382,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1408,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5970588235294118</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L23">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1434,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5830508474576271</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L24">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M24">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1460,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5730337078651685</v>
+        <v>0.54</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1486,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1512,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5313807531380753</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L27">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1538,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5256410256410257</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1569,16 +1539,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4520547945205479</v>
+        <v>0.453125</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1590,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4428571428571428</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1616,125 +1586,125 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.2307692307692308</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.189873417721519</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>128</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.1875</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L33">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M33">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.1770334928229665</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="L34">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>344</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.1348837209302326</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1746,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.121923937360179</v>
+        <v>0.1152125279642058</v>
       </c>
       <c r="L36">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M36">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1772,73 +1742,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.1168224299065421</v>
+        <v>0.1054384017758047</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>189</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.1049382716049383</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L38">
         <v>34</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N38">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.09465020576131687</v>
+        <v>0.09415584415584416</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1850,151 +1820,151 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>440</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.08950617283950617</v>
+        <v>0.08073817762399077</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M40">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>590</v>
+        <v>797</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.08777777777777777</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L41">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="M41">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>821</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.08441558441558442</v>
+        <v>0.07109737248840804</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>282</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.07266760431317393</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L43">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1978</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.07159353348729793</v>
+        <v>0.04015544041450777</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="M44">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>804</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.0382992534891269</v>
+        <v>0.03329864724245578</v>
       </c>
       <c r="L45">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>0.82</v>
@@ -2006,59 +1976,33 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2963</v>
+        <v>929</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="K46">
-        <v>0.03742203742203742</v>
+        <v>0.02645669291338583</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N46">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="O46">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47">
-        <v>0.02293433867420672</v>
-      </c>
-      <c r="L47">
-        <v>73</v>
-      </c>
-      <c r="M47">
-        <v>91</v>
-      </c>
-      <c r="N47">
-        <v>0.8</v>
-      </c>
-      <c r="O47">
-        <v>0.2</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3110</v>
+        <v>3091</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -67,139 +67,145 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -726,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8787878787878788</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -776,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4697986577181208</v>
+        <v>0.4554263565891473</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4573643410852713</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C7">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.828125</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3756613756613756</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.825</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,87 +1032,63 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1827956989247312</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="L11">
+        <v>116</v>
+      </c>
+      <c r="M11">
+        <v>116</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8046875</v>
-      </c>
-      <c r="L11">
-        <v>103</v>
-      </c>
-      <c r="M11">
-        <v>103</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.008341353865896696</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>110</v>
-      </c>
-      <c r="E12">
-        <v>0.76</v>
-      </c>
-      <c r="F12">
-        <v>0.24</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3091</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1196,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.746031746031746</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6914893617021277</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>0.7</v>
+      </c>
+      <c r="L19">
         <v>35</v>
       </c>
-      <c r="K19">
-        <v>0.6475195822454308</v>
-      </c>
-      <c r="L19">
-        <v>248</v>
-      </c>
       <c r="M19">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6458333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1326,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6058823529411764</v>
+        <v>0.6657963446475196</v>
       </c>
       <c r="L21">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="M21">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5842696629213483</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1378,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5813953488372093</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5525423728813559</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L24">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1430,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.54</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5230125523012552</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L26">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="M26">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1482,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5142857142857142</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1508,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4931506849315068</v>
+        <v>0.515625</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1534,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.453125</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1560,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4102564102564102</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1612,125 +1594,125 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.2014388489208633</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L32">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>333</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1686746987951807</v>
+        <v>0.1813953488372093</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>345</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.1355140186915888</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>185</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.1302325581395349</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.1152125279642058</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L36">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M36">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1742,73 +1724,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>791</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.1054384017758047</v>
+        <v>0.1196319018404908</v>
       </c>
       <c r="L37">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>806</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.1042944785276074</v>
+        <v>0.1017897091722595</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>292</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.09415584415584416</v>
+        <v>0.09877913429522753</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1820,189 +1802,241 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>279</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.08073817762399077</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="L40">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>797</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.07692307692307693</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L41">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="M41">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1968</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.07109737248840804</v>
+        <v>0.08239171374764595</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="M42">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>601</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.06185567010309279</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.04015544041450777</v>
+        <v>0.07398843930635839</v>
       </c>
       <c r="L44">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="M44">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2964</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.03329864724245578</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N45">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="O45">
-        <v>0.18</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>929</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.02645669291338583</v>
+        <v>0.03634475597092419</v>
       </c>
       <c r="L46">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N46">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3091</v>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>0.03144654088050314</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>121</v>
+      </c>
+      <c r="N47">
+        <v>0.83</v>
+      </c>
+      <c r="O47">
+        <v>0.17</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48">
+        <v>0.02510822510822511</v>
+      </c>
+      <c r="L48">
+        <v>29</v>
+      </c>
+      <c r="M48">
+        <v>35</v>
+      </c>
+      <c r="N48">
+        <v>0.83</v>
+      </c>
+      <c r="O48">
+        <v>0.17</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
